--- a/Planning and Design/CST-247-RS-SprintBurnDown - CLC.xlsx
+++ b/Planning and Design/CST-247-RS-SprintBurnDown - CLC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron\Documents\Grand Canyon University\Classes\CST-247\CLC - Week 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron\Documents\Grand Canyon University\Classes\CST-247\CLC - Week 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="9075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13020"/>
   </bookViews>
   <sheets>
     <sheet name="Burn Down Chart" sheetId="1" r:id="rId1"/>
@@ -175,8 +175,8 @@
   </si>
   <si>
     <t>Project Title: Minsweeper Web Application
-Release #: 0.1
-Sprint #: 1</t>
+Release #: 0.2
+Sprint #: 2</t>
   </si>
 </sst>
 </file>
@@ -363,10 +363,96 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:v>Ideal burndown</c:v>
+            <c:v>Ideal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn Down Chart'!$F$14:$P$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.3999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9999999999999982</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.5999999999999979</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1999999999999975</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7999999999999976</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3999999999999977</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.2204460492503131E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Actual</c:v>
           </c:tx>
           <c:dLbls>
             <c:spPr>
@@ -386,189 +472,47 @@
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
-                <c15:showLeaderLines val="0"/>
+                <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Sheet1!$F$5:$O$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burn Down Chart'!$F$15:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>Day 10</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Day 9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Day 8</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Day 7</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Day 6</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Day 5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Day 4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Day 3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Day 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Sheet1!$F$19:$O$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Actual burndown</c:v>
-          </c:tx>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>[1]Sheet1!$F$5:$O$5</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>Day 10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Day 9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Day 8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Day 7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Day 6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Day 5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Day 4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Day 3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Day 2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Day 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Sheet1!$F$20:$O$20</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -586,11 +530,255 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="411988944"/>
-        <c:axId val="411976792"/>
+        <c:axId val="434417496"/>
+        <c:axId val="434418280"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>Ideal burndown</c:v>
+                </c:tx>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="0"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]Sheet1!$F$5:$O$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>Day 10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Day 9</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Day 8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Day 7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Day 6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Day 5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Day 4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Day 3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Day 2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Day 1</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]Sheet1!$F$19:$O$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Actual burndown</c:v>
+                </c:tx>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="0"/>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]Sheet1!$F$5:$O$5</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>Day 10</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Day 9</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Day 8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>Day 7</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>Day 6</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>Day 5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>Day 4</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>Day 3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>Day 2</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>Day 1</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>[1]Sheet1!$F$20:$O$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="10"/>
+                      <c:pt idx="0">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="411988944"/>
+        <c:axId val="434417496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -600,7 +788,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="411976792"/>
+        <c:crossAx val="434418280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -608,7 +796,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="411976792"/>
+        <c:axId val="434418280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -618,7 +806,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="411988944"/>
+        <c:crossAx val="434417496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1056,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1170,10 +1358,10 @@
         <v>0</v>
       </c>
       <c r="H4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="4">
         <v>0</v>
@@ -1338,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="H8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
@@ -1469,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="G11" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" s="4">
         <v>0</v>
@@ -1484,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
@@ -1519,7 +1707,7 @@
         <v>3</v>
       </c>
       <c r="G12" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12" s="4">
         <v>0</v>
@@ -1534,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
@@ -1581,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L13" s="4">
         <v>0</v>
@@ -1618,7 +1806,7 @@
         <v>12.6</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" ref="H14:P14" si="0">G14-$F$14/10</f>
+        <f t="shared" ref="H14:O14" si="0">G14-$F$14/10</f>
         <v>11.2</v>
       </c>
       <c r="I14" s="4">
@@ -1650,7 +1838,7 @@
         <v>1.3999999999999977</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="0"/>
+        <f>O14-$F$14/10</f>
         <v>-2.2204460492503131E-15</v>
       </c>
       <c r="Q14" s="1"/>
@@ -1670,43 +1858,43 @@
       </c>
       <c r="G15" s="4">
         <f t="shared" ref="G15:P15" si="1">F15 - SUM(G4:G13)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H15" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="N15" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="P15" s="4">
         <f t="shared" si="1"/>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -2318,6 +2506,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9FDC2B66788A044965A7B8958E6244A" ma:contentTypeVersion="1251" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c2c36359d71eb747fbb188f75fc8d29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="d6188da8-f31e-469a-aed4-03a23c44e36a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08acee74153637279a480e75df712a71" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2506,25 +2712,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6E300D-687F-49DD-9C99-AC5EA1BE3BF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C1BE12-9AF4-4D82-8933-6D42A4A8E2C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA975265-C41C-4191-AC8E-A5AD70B8A3C6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2541,29 +2754,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6E300D-687F-49DD-9C99-AC5EA1BE3BF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C1BE12-9AF4-4D82-8933-6D42A4A8E2C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Planning and Design/CST-247-RS-SprintBurnDown - CLC.xlsx
+++ b/Planning and Design/CST-247-RS-SprintBurnDown - CLC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/35af494a6f2f1d2d/Desktop/Vinson's Degree/CST247/CLC PROJECT2/Planning and Design/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cameron\Documents\Grand Canyon University\Classes\CST-247\CLC - Week 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_8C1523A8394058AF6CBE7020202F76655F56CF11" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5E848BD8-389C-4A5C-8307-3F1169A589F2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Burn Down Chart" sheetId="1" r:id="rId1"/>
@@ -19,18 +18,10 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -81,6 +72,9 @@
     <t>Estimate</t>
   </si>
   <si>
+    <t>User Story ID</t>
+  </si>
+  <si>
     <t>Assigned To</t>
   </si>
   <si>
@@ -147,40 +141,37 @@
     <t>Cameron Deao</t>
   </si>
   <si>
+    <t>Project Title: Minsweeper Web Application
+Release #: 0.4
+Sprint #: 4</t>
+  </si>
+  <si>
+    <t>Refactor game board with AJAX and parital views.</t>
+  </si>
+  <si>
+    <t>As a developer I would like to refactor the design of the game board to avoid page refreshes for the user.</t>
+  </si>
+  <si>
+    <t>As a developer I would like to refactor the SQL data insertion and retrieval to ensure stronger user security.</t>
+  </si>
+  <si>
+    <t>Refactor SQL server data insertion and retrieval along with password encryption.</t>
+  </si>
+  <si>
+    <t>As a developer I would like to adjust the overall color scheme of the application.</t>
+  </si>
+  <si>
+    <t>Adjust and enhance visuals of views.</t>
+  </si>
+  <si>
     <t>Joseph Cooper</t>
-  </si>
-  <si>
-    <t>Project Title: Minsweeper Web Application
-Release #: 0.3
-Sprint #: 3</t>
-  </si>
-  <si>
-    <t>Game board logic</t>
-  </si>
-  <si>
-    <t>As a(n) developer, I would like to create the logic for gameplay.</t>
-  </si>
-  <si>
-    <t>As a(n) developer, I would like to showcase a 12x12 game grid of Minesweeper.</t>
-  </si>
-  <si>
-    <t>As a(n) user, I would like to view a home page after logging in to the application</t>
-  </si>
-  <si>
-    <t>Home page/view</t>
-  </si>
-  <si>
-    <t>Game board view and controller</t>
-  </si>
-  <si>
-    <t>Story ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,14 +189,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -267,6 +250,33 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
@@ -276,46 +286,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -334,7 +312,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -363,6 +341,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -408,58 +387,54 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Burn Down Chart'!$E$14:$O$14</c:f>
+              <c:f>'Burn Down Chart'!$F$14:$P$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.4</c:v>
+                  <c:v>14.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.799999999999997</c:v>
+                  <c:v>12.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.199999999999996</c:v>
+                  <c:v>11.200000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.599999999999996</c:v>
+                  <c:v>9.6000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.999999999999996</c:v>
+                  <c:v>8.0000000000000018</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>10.399999999999997</c:v>
+                  <c:v>6.4000000000000021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.7999999999999972</c:v>
+                  <c:v>4.8000000000000025</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.1999999999999975</c:v>
+                  <c:v>3.2000000000000024</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.5999999999999974</c:v>
+                  <c:v>1.6000000000000023</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.2204460492503131E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A8A1-4E14-9F8A-E9D066E4F517}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -484,36 +459,37 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
               </c:ext>
             </c:extLst>
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Burn Down Chart'!$E$15:$O$15</c:f>
+              <c:f>'Burn Down Chart'!$F$15:$P$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -531,11 +507,6 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A8A1-4E14-9F8A-E9D066E4F517}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -547,8 +518,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="466029448"/>
-        <c:axId val="466030624"/>
+        <c:axId val="434935032"/>
+        <c:axId val="434933856"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -669,11 +640,6 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000002-A8A1-4E14-9F8A-E9D066E4F517}"/>
-                  </c:ext>
-                </c:extLst>
               </c15:ser>
             </c15:filteredLineSeries>
             <c15:filteredLineSeries>
@@ -794,18 +760,13 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-A8A1-4E14-9F8A-E9D066E4F517}"/>
-                  </c:ext>
-                </c:extLst>
               </c15:ser>
             </c15:filteredLineSeries>
           </c:ext>
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="466029448"/>
+        <c:axId val="434935032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,7 +776,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="466030624"/>
+        <c:crossAx val="434933856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -823,7 +784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="466030624"/>
+        <c:axId val="434933856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -833,13 +794,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="466029448"/>
+        <c:crossAx val="434935032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -858,26 +820,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>514351</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>590550</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1273,1070 +1229,1095 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection sqref="A1:O36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="11" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" style="5" customWidth="1"/>
-    <col min="6" max="15" width="3.6328125" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="8.81640625" style="5"/>
+    <col min="2" max="2" width="13" style="8" customWidth="1"/>
+    <col min="3" max="3" width="21" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="48" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:18" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4">
+        <v>6</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>0</v>
+      </c>
+      <c r="O7" s="4">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4">
+        <v>6</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="4">
+        <v>2</v>
+      </c>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>2</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="4">
+        <v>0</v>
+      </c>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0</v>
+      </c>
+      <c r="O9" s="4">
+        <v>0</v>
+      </c>
+      <c r="P9" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0</v>
+      </c>
+      <c r="M10" s="4">
+        <v>0</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+      <c r="O10" s="4">
+        <v>0</v>
+      </c>
+      <c r="P10" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:18" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="7">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="14" t="s">
+      <c r="F11" s="4">
+        <v>4</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="4">
+        <v>4</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="7">
+        <v>4</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
+        <v>0</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <v>0</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="7">
         <v>5</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="1:17" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="9">
-        <v>12</v>
-      </c>
-      <c r="F4" s="9">
-        <v>0</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>2</v>
-      </c>
-      <c r="I4" s="9">
-        <v>0</v>
-      </c>
-      <c r="J4" s="9">
-        <v>4</v>
-      </c>
-      <c r="K4" s="9">
-        <v>4</v>
-      </c>
-      <c r="L4" s="9">
-        <v>2</v>
-      </c>
-      <c r="M4" s="9">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9">
-        <v>0</v>
-      </c>
-      <c r="O4" s="9">
-        <v>0</v>
-      </c>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="9">
-        <v>0</v>
-      </c>
-      <c r="F5" s="9">
-        <v>0</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9">
-        <v>0</v>
-      </c>
-      <c r="J5" s="9">
-        <v>0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>0</v>
-      </c>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9">
-        <v>0</v>
-      </c>
-      <c r="N5" s="9">
-        <v>0</v>
-      </c>
-      <c r="O5" s="9">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>0</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="9">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
-      </c>
-      <c r="N6" s="9">
-        <v>0</v>
-      </c>
-      <c r="O6" s="9">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="9">
-        <v>0</v>
-      </c>
-      <c r="F7" s="9">
-        <v>0</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>0</v>
-      </c>
-      <c r="I7" s="9">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
-        <v>0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>0</v>
-      </c>
-      <c r="L7" s="9">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
-        <v>0</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0</v>
-      </c>
-      <c r="O7" s="9">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-    </row>
-    <row r="8" spans="1:17" ht="87" x14ac:dyDescent="0.35">
-      <c r="A8" s="8">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="9">
-        <v>12</v>
-      </c>
-      <c r="F8" s="9">
-        <v>0</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9">
-        <v>4</v>
-      </c>
-      <c r="I8" s="9">
-        <v>4</v>
-      </c>
-      <c r="J8" s="9">
-        <v>0</v>
-      </c>
-      <c r="K8" s="9">
-        <v>4</v>
-      </c>
-      <c r="L8" s="9">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
-        <v>0</v>
-      </c>
-      <c r="N8" s="9">
-        <v>0</v>
-      </c>
-      <c r="O8" s="9">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="9">
-        <v>0</v>
-      </c>
-      <c r="J9" s="9">
-        <v>0</v>
-      </c>
-      <c r="K9" s="9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
-        <v>0</v>
-      </c>
-      <c r="N9" s="9">
-        <v>0</v>
-      </c>
-      <c r="O9" s="9">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-      <c r="H10" s="9">
-        <v>0</v>
-      </c>
-      <c r="I10" s="9">
-        <v>0</v>
-      </c>
-      <c r="J10" s="9">
-        <v>0</v>
-      </c>
-      <c r="K10" s="9">
-        <v>0</v>
-      </c>
-      <c r="L10" s="9">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
-        <v>0</v>
-      </c>
-      <c r="N10" s="9">
-        <v>0</v>
-      </c>
-      <c r="O10" s="9">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="1:17" ht="87" x14ac:dyDescent="0.35">
-      <c r="A11" s="8">
-        <v>3</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="9">
-        <v>2</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-      <c r="H11" s="9">
-        <v>2</v>
-      </c>
-      <c r="I11" s="9">
-        <v>0</v>
-      </c>
-      <c r="J11" s="9">
-        <v>0</v>
-      </c>
-      <c r="K11" s="9">
-        <v>0</v>
-      </c>
-      <c r="L11" s="9">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
-        <v>0</v>
-      </c>
-      <c r="N11" s="9">
-        <v>0</v>
-      </c>
-      <c r="O11" s="9">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A12" s="8">
-        <v>4</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9">
-        <v>0</v>
-      </c>
-      <c r="I12" s="9">
-        <v>0</v>
-      </c>
-      <c r="J12" s="9">
-        <v>0</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
-        <v>0</v>
-      </c>
-      <c r="N12" s="9">
-        <v>0</v>
-      </c>
-      <c r="O12" s="9">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A13" s="8">
-        <v>5</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0</v>
-      </c>
-      <c r="K13" s="9">
-        <v>0</v>
-      </c>
-      <c r="L13" s="9">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
-        <v>0</v>
-      </c>
-      <c r="N13" s="9">
-        <v>0</v>
-      </c>
-      <c r="O13" s="9">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0</v>
+      </c>
+      <c r="M13" s="4">
+        <v>0</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0</v>
+      </c>
+      <c r="O13" s="4">
+        <v>0</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="9">
-        <f>SUM(E4:E13)</f>
-        <v>26</v>
-      </c>
-      <c r="F14" s="9">
-        <f>E14-$E$14/10</f>
-        <v>23.4</v>
-      </c>
-      <c r="G14" s="9">
-        <f t="shared" ref="G14:N14" si="0">F14-$E$14/10</f>
-        <v>20.799999999999997</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="4">
+        <f>SUM(F4:F13)</f>
+        <v>16</v>
+      </c>
+      <c r="G14" s="4">
+        <f>F14-$F$14/10</f>
+        <v>14.4</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" ref="H14:O14" si="0">G14-$F$14/10</f>
+        <v>12.8</v>
+      </c>
+      <c r="I14" s="4">
         <f t="shared" si="0"/>
-        <v>18.199999999999996</v>
-      </c>
-      <c r="I14" s="9">
+        <v>11.200000000000001</v>
+      </c>
+      <c r="J14" s="4">
         <f t="shared" si="0"/>
-        <v>15.599999999999996</v>
-      </c>
-      <c r="J14" s="9">
+        <v>9.6000000000000014</v>
+      </c>
+      <c r="K14" s="4">
         <f t="shared" si="0"/>
-        <v>12.999999999999996</v>
-      </c>
-      <c r="K14" s="9">
+        <v>8.0000000000000018</v>
+      </c>
+      <c r="L14" s="4">
         <f t="shared" si="0"/>
-        <v>10.399999999999997</v>
-      </c>
-      <c r="L14" s="9">
+        <v>6.4000000000000021</v>
+      </c>
+      <c r="M14" s="4">
         <f t="shared" si="0"/>
-        <v>7.7999999999999972</v>
-      </c>
-      <c r="M14" s="9">
+        <v>4.8000000000000025</v>
+      </c>
+      <c r="N14" s="4">
         <f t="shared" si="0"/>
-        <v>5.1999999999999975</v>
-      </c>
-      <c r="N14" s="9">
+        <v>3.2000000000000024</v>
+      </c>
+      <c r="O14" s="4">
         <f t="shared" si="0"/>
-        <v>2.5999999999999974</v>
-      </c>
-      <c r="O14" s="9">
-        <f>N14-$E$14/10</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+        <v>1.6000000000000023</v>
+      </c>
+      <c r="P14" s="4">
+        <f>O14-$F$14/10</f>
+        <v>2.2204460492503131E-15</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="9">
-        <f>SUM(E4:E13)</f>
-        <v>26</v>
-      </c>
-      <c r="F15" s="9">
-        <f t="shared" ref="F15:O15" si="1">E15 - SUM(F4:F13)</f>
-        <v>26</v>
-      </c>
-      <c r="G15" s="9">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="H15" s="9">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="I15" s="9">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="4">
+        <f>SUM(F4:F13)</f>
+        <v>16</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" ref="G15:P15" si="1">F15 - SUM(G4:G13)</f>
+        <v>16</v>
+      </c>
+      <c r="H15" s="4">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="J15" s="9">
+      <c r="I15" s="4">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J15" s="4">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="4">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L15" s="9">
+        <v>4</v>
+      </c>
+      <c r="L15" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M15" s="9">
+        <v>4</v>
+      </c>
+      <c r="M15" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
+      <c r="P15" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2348,150 +2329,150 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="2" max="2" width="228" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
+      <c r="B5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="3" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
+      <c r="B7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="3" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="3" t="s">
+      <c r="B8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="3" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-    </row>
-    <row r="22" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-    </row>
-    <row r="24" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="B9" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+    </row>
+    <row r="18" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+    </row>
+    <row r="20" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+    </row>
+    <row r="23" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="24" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2499,6 +2480,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B9FDC2B66788A044965A7B8958E6244A" ma:contentTypeVersion="1251" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6c2c36359d71eb747fbb188f75fc8d29">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="d6188da8-f31e-469a-aed4-03a23c44e36a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="08acee74153637279a480e75df712a71" ns1:_="" ns2:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2687,25 +2686,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C1BE12-9AF4-4D82-8933-6D42A4A8E2C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6E300D-687F-49DD-9C99-AC5EA1BE3BF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA975265-C41C-4191-AC8E-A5AD70B8A3C6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2722,29 +2728,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D6E300D-687F-49DD-9C99-AC5EA1BE3BF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{90C1BE12-9AF4-4D82-8933-6D42A4A8E2C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="30a82cfc-8d0b-455e-b705-4035c60ff9fd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>